--- a/jpcore-r4/feature/swg45-RP番号、薬剤番号のExtension化/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/swg45-RP番号、薬剤番号のExtension化/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-06T08:16:07+00:00</t>
+    <t>2024-09-06T08:37:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
